--- a/data/brown/figure-6.3.xlsx
+++ b/data/brown/figure-6.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arand\OneDrive - blueprint-ade.ca\Documents\bookdown-projects\latent-variable-modelling\data\brown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC26814-F00F-41C1-B768-8DD2B0D80744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E12C4A-0551-45DE-A6F2-4238D1069D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F4B8C13A-9C68-4A25-8F63-19A8A05A54C8}"/>
   </bookViews>
@@ -414,7 +414,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
